--- a/step by step description.xlsx
+++ b/step by step description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haneulmun/Documents/Github/hong-bookstore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEBEBE7E-D835-4345-81D8-4801CF22407A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A787C2F-6CA5-124A-B2FE-40DF39AA754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2787,27 +2787,27 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2827,16 +2827,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3161,8 +3161,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
@@ -3191,7 +3191,7 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -3204,7 +3204,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="17">
-      <c r="A3" s="66"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
         <v>50</v>
@@ -3228,7 +3228,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="17">
-      <c r="A5" s="65"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="17">
-      <c r="A6" s="65"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
         <v>53</v>
@@ -3250,7 +3250,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="34">
-      <c r="A7" s="65"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>54</v>
@@ -3261,7 +3261,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="34">
-      <c r="A8" s="66"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>55</v>
@@ -3285,7 +3285,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="17">
-      <c r="A10" s="65"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
         <v>57</v>
@@ -3296,7 +3296,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="17">
-      <c r="A11" s="65"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="13" t="s">
         <v>58</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="17">
-      <c r="A12" s="66"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>59</v>
@@ -3331,7 +3331,7 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="17">
-      <c r="A14" s="65"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
         <v>61</v>
@@ -3342,7 +3342,7 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17">
-      <c r="A15" s="65"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="13" t="s">
         <v>62</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17">
-      <c r="A16" s="65"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
         <v>63</v>
@@ -3364,7 +3364,7 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="17">
-      <c r="A17" s="65"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="13" t="s">
         <v>64</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="34">
-      <c r="A18" s="65"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
         <v>65</v>
@@ -3386,7 +3386,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="17">
-      <c r="A19" s="65"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
         <v>66</v>
@@ -3397,7 +3397,7 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="17">
-      <c r="A20" s="65"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="13" t="s">
         <v>67</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="34">
-      <c r="A21" s="65"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
         <v>68</v>
@@ -3419,7 +3419,7 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="17">
-      <c r="A22" s="66"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12" t="s">
         <v>69</v>
@@ -3443,7 +3443,7 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="17">
-      <c r="A24" s="66"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12" t="s">
         <v>71</v>
@@ -3467,7 +3467,7 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="17">
-      <c r="A26" s="65"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
         <v>73</v>
@@ -3478,7 +3478,7 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="17">
-      <c r="A27" s="65"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="13" t="s">
         <v>74</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" ht="17">
-      <c r="A28" s="65"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
         <v>75</v>
@@ -3500,7 +3500,7 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" ht="17">
-      <c r="A29" s="65"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
         <v>76</v>
@@ -3511,7 +3511,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="34">
-      <c r="A30" s="65"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
         <v>77</v>
@@ -3522,7 +3522,7 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="34">
-      <c r="A31" s="65"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="13" t="s">
         <v>78</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" ht="17">
-      <c r="A32" s="65"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
         <v>79</v>
@@ -3544,7 +3544,7 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="17">
-      <c r="A33" s="65"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
         <v>80</v>
@@ -3555,7 +3555,7 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="34">
-      <c r="A34" s="65"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>81</v>
@@ -3566,7 +3566,7 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="17">
-      <c r="A35" s="65"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="13" t="s">
         <v>82</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" ht="17">
-      <c r="A36" s="65"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
         <v>83</v>
@@ -3588,7 +3588,7 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="17">
-      <c r="A37" s="65"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
         <v>84</v>
@@ -3599,7 +3599,7 @@
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" ht="17">
-      <c r="A38" s="65"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="13" t="s">
         <v>85</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" ht="17">
-      <c r="A39" s="65"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="s">
         <v>86</v>
@@ -3621,11 +3621,11 @@
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" ht="16">
-      <c r="A40" s="66"/>
-      <c r="B40" s="74" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="75"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="6"/>
@@ -3645,7 +3645,7 @@
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" ht="17">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12" t="s">
         <v>89</v>
@@ -3669,7 +3669,7 @@
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="17">
-      <c r="A44" s="65"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
         <v>92</v>
@@ -3680,7 +3680,7 @@
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" ht="17">
-      <c r="A45" s="65"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="13" t="s">
         <v>93</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" ht="17">
-      <c r="A46" s="66"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12" t="s">
         <v>94</v>
@@ -3717,7 +3717,7 @@
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" ht="17">
-      <c r="A48" s="66"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="11"/>
       <c r="C48" s="16" t="s">
         <v>97</v>
@@ -3741,7 +3741,7 @@
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="17">
-      <c r="A50" s="65"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
         <v>100</v>
@@ -3752,7 +3752,7 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="127">
-      <c r="A51" s="65"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="13" t="s">
         <v>101</v>
       </c>
@@ -3772,7 +3772,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="17">
-      <c r="A52" s="65"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
         <v>75</v>
@@ -3783,7 +3783,7 @@
       <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:8" ht="17">
-      <c r="A53" s="65"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
         <v>76</v>
@@ -3793,7 +3793,7 @@
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:8" ht="34">
-      <c r="A54" s="66"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
         <v>106</v>
@@ -3817,7 +3817,7 @@
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="17">
-      <c r="A56" s="65"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
         <v>108</v>
@@ -3828,7 +3828,7 @@
       <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="17">
-      <c r="A57" s="65"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="13" t="s">
         <v>109</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="17">
-      <c r="A58" s="65"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
         <v>110</v>
@@ -3850,7 +3850,7 @@
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="17">
-      <c r="A59" s="65"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
         <v>111</v>
@@ -3861,7 +3861,7 @@
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="17">
-      <c r="A60" s="65"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="13" t="s">
         <v>112</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="34">
-      <c r="A61" s="65"/>
+      <c r="A61" s="69"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
         <v>113</v>
@@ -3883,7 +3883,7 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="17">
-      <c r="A62" s="65"/>
+      <c r="A62" s="69"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12" t="s">
         <v>114</v>
@@ -3894,7 +3894,7 @@
       <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="34">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="68" t="s">
         <v>115</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -3907,7 +3907,7 @@
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="34">
-      <c r="A64" s="66"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12" t="s">
         <v>117</v>
@@ -3931,7 +3931,7 @@
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" ht="17">
-      <c r="A66" s="65"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14" t="s">
         <v>120</v>
@@ -3942,7 +3942,7 @@
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7" ht="17">
-      <c r="A67" s="65"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="13" t="s">
         <v>121</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7" ht="17">
-      <c r="A68" s="65"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
         <v>122</v>
@@ -3964,7 +3964,7 @@
       <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:7" ht="17">
-      <c r="A69" s="65"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="13" t="s">
         <v>123</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7" ht="34">
-      <c r="A70" s="65"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="13"/>
       <c r="C70" s="20" t="s">
         <v>124</v>
@@ -3986,7 +3986,7 @@
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7" ht="34">
-      <c r="A71" s="66"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="11"/>
       <c r="C71" s="12" t="s">
         <v>125</v>
@@ -3997,7 +3997,7 @@
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7" ht="17">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="70" t="s">
         <v>4</v>
       </c>
       <c r="B72" s="13" t="s">
@@ -4010,7 +4010,7 @@
       <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7" ht="17">
-      <c r="A73" s="65"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
         <v>120</v>
@@ -4021,7 +4021,7 @@
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7" ht="17">
-      <c r="A74" s="65"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="13" t="s">
         <v>126</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7" ht="17">
-      <c r="A75" s="66"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="11"/>
       <c r="C75" s="12" t="s">
         <v>127</v>
@@ -4056,7 +4056,7 @@
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7" ht="17">
-      <c r="A77" s="65"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
         <v>120</v>
@@ -4067,7 +4067,7 @@
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7" ht="17">
-      <c r="A78" s="65"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="13" t="s">
         <v>129</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7" ht="17">
-      <c r="A79" s="65"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
         <v>130</v>
@@ -4089,7 +4089,7 @@
       <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7" ht="17">
-      <c r="A80" s="65"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="13" t="s">
         <v>131</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7" ht="34">
-      <c r="A81" s="65"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
         <v>132</v>
@@ -4111,7 +4111,7 @@
       <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" ht="34">
-      <c r="A82" s="66"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12" t="s">
         <v>125</v>
@@ -4135,7 +4135,7 @@
       <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7" ht="17">
-      <c r="A84" s="65"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
         <v>134</v>
@@ -4146,7 +4146,7 @@
       <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:7" ht="17">
-      <c r="A85" s="65"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="13" t="s">
         <v>135</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7" ht="17">
-      <c r="A86" s="65"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14" t="s">
         <v>110</v>
@@ -4168,7 +4168,7 @@
       <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7" ht="17">
-      <c r="A87" s="65"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
         <v>136</v>
@@ -4179,7 +4179,7 @@
       <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7" ht="17">
-      <c r="A88" s="65"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="13" t="s">
         <v>137</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7" ht="17">
-      <c r="A89" s="65"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="13" t="s">
         <v>138</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7" ht="34">
-      <c r="A90" s="65"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
         <v>139</v>
@@ -4212,7 +4212,7 @@
       <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7" ht="17">
-      <c r="A91" s="66"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="11"/>
       <c r="C91" s="12" t="s">
         <v>140</v>
@@ -4236,7 +4236,7 @@
       <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" ht="17">
-      <c r="A93" s="66"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="11"/>
       <c r="C93" s="12" t="s">
         <v>142</v>
@@ -4260,7 +4260,7 @@
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7" ht="34">
-      <c r="A95" s="65"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="11"/>
       <c r="C95" s="12" t="s">
         <v>143</v>
@@ -4271,7 +4271,7 @@
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" ht="17">
-      <c r="A96" s="72" t="s">
+      <c r="A96" s="68" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="13" t="s">
@@ -4284,7 +4284,7 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" ht="17">
-      <c r="A97" s="66"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="11"/>
       <c r="C97" s="12" t="s">
         <v>144</v>
@@ -4308,7 +4308,7 @@
       <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7" ht="17">
-      <c r="A99" s="66"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="11"/>
       <c r="C99" s="12" t="s">
         <v>146</v>
@@ -4332,7 +4332,7 @@
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" ht="17">
-      <c r="A101" s="65"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14" t="s">
         <v>148</v>
@@ -4343,7 +4343,7 @@
       <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7" ht="17">
-      <c r="A102" s="65"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14" t="s">
         <v>149</v>
@@ -4354,7 +4354,7 @@
       <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" ht="17">
-      <c r="A103" s="65"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="13" t="s">
         <v>150</v>
       </c>
@@ -4365,7 +4365,7 @@
       <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" ht="17">
-      <c r="A104" s="66"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14" t="s">
         <v>151</v>
@@ -4376,7 +4376,7 @@
       <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7" ht="17">
-      <c r="A105" s="69" t="s">
+      <c r="A105" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B105" s="21" t="s">
@@ -4389,7 +4389,7 @@
       <c r="G105" s="6"/>
     </row>
     <row r="106" spans="1:7" ht="17">
-      <c r="A106" s="70"/>
+      <c r="A106" s="67"/>
       <c r="B106" s="22"/>
       <c r="C106" s="14" t="s">
         <v>153</v>
@@ -4400,7 +4400,7 @@
       <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7" ht="17">
-      <c r="A107" s="70"/>
+      <c r="A107" s="67"/>
       <c r="B107" s="22" t="s">
         <v>154</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7" ht="17">
-      <c r="A108" s="70"/>
+      <c r="A108" s="67"/>
       <c r="B108" s="22"/>
       <c r="C108" s="14" t="s">
         <v>155</v>
@@ -4422,7 +4422,7 @@
       <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7" ht="17">
-      <c r="A109" s="70"/>
+      <c r="A109" s="67"/>
       <c r="B109" s="22" t="s">
         <v>156</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" ht="17">
-      <c r="A112" s="66"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="11"/>
       <c r="C112" s="12" t="s">
         <v>159</v>
@@ -4481,7 +4481,7 @@
       <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" ht="17">
-      <c r="A114" s="65"/>
+      <c r="A114" s="69"/>
       <c r="B114" s="13"/>
       <c r="C114" s="14" t="s">
         <v>161</v>
@@ -4492,7 +4492,7 @@
       <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" ht="17">
-      <c r="A115" s="66"/>
+      <c r="A115" s="65"/>
       <c r="B115" s="11"/>
       <c r="C115" s="12" t="s">
         <v>162</v>
@@ -4516,7 +4516,7 @@
       <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7" ht="17">
-      <c r="A117" s="65"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="13"/>
       <c r="C117" s="14" t="s">
         <v>164</v>
@@ -4527,7 +4527,7 @@
       <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7" ht="34">
-      <c r="A118" s="65"/>
+      <c r="A118" s="69"/>
       <c r="B118" s="13" t="s">
         <v>165</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7" ht="17">
-      <c r="A119" s="65"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="13"/>
       <c r="C119" s="14" t="s">
         <v>166</v>
@@ -4549,7 +4549,7 @@
       <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7" ht="34">
-      <c r="A120" s="66"/>
+      <c r="A120" s="65"/>
       <c r="B120" s="11"/>
       <c r="C120" s="12" t="s">
         <v>167</v>
@@ -4573,7 +4573,7 @@
       <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7" ht="17">
-      <c r="A122" s="65"/>
+      <c r="A122" s="69"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14" t="s">
         <v>169</v>
@@ -4584,7 +4584,7 @@
       <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7" ht="17">
-      <c r="A123" s="65"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="24" t="s">
         <v>170</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" ht="17">
-      <c r="A124" s="65"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14" t="s">
         <v>171</v>
@@ -4606,7 +4606,7 @@
       <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7" ht="51">
-      <c r="A125" s="65"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="24" t="s">
         <v>172</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" ht="17">
-      <c r="A126" s="65"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="13" t="s">
         <v>173</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" ht="17">
-      <c r="A127" s="65"/>
+      <c r="A127" s="69"/>
       <c r="B127" s="24" t="s">
         <v>174</v>
       </c>
@@ -4639,7 +4639,7 @@
       <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" ht="17">
-      <c r="A128" s="65"/>
+      <c r="A128" s="69"/>
       <c r="B128" s="13"/>
       <c r="C128" s="14" t="s">
         <v>175</v>
@@ -4650,7 +4650,7 @@
       <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7" ht="34">
-      <c r="A129" s="65"/>
+      <c r="A129" s="69"/>
       <c r="B129" s="13"/>
       <c r="C129" s="20" t="s">
         <v>176</v>
@@ -4661,7 +4661,7 @@
       <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" ht="17">
-      <c r="A130" s="65"/>
+      <c r="A130" s="69"/>
       <c r="B130" s="13" t="s">
         <v>177</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" ht="17">
-      <c r="A131" s="65"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="13" t="s">
         <v>178</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" ht="17">
-      <c r="A132" s="65"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="13" t="s">
         <v>179</v>
       </c>
@@ -4694,7 +4694,7 @@
       <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7" ht="17">
-      <c r="A133" s="65"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="13"/>
       <c r="C133" s="14" t="s">
         <v>180</v>
@@ -4705,7 +4705,7 @@
       <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7" ht="17">
-      <c r="A134" s="65"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="13"/>
       <c r="C134" s="14" t="s">
         <v>181</v>
@@ -4716,7 +4716,7 @@
       <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" ht="17">
-      <c r="A135" s="65"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="13"/>
       <c r="C135" s="14" t="s">
         <v>182</v>
@@ -4727,7 +4727,7 @@
       <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" ht="17">
-      <c r="A136" s="66"/>
+      <c r="A136" s="65"/>
       <c r="B136" s="11"/>
       <c r="C136" s="12" t="s">
         <v>183</v>
@@ -4751,7 +4751,7 @@
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" ht="17">
-      <c r="A138" s="65"/>
+      <c r="A138" s="69"/>
       <c r="B138" s="13"/>
       <c r="C138" s="14" t="s">
         <v>186</v>
@@ -4762,7 +4762,7 @@
       <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" ht="17">
-      <c r="A139" s="65"/>
+      <c r="A139" s="69"/>
       <c r="B139" s="13" t="s">
         <v>187</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" ht="34">
-      <c r="A140" s="66"/>
+      <c r="A140" s="65"/>
       <c r="B140" s="11"/>
       <c r="C140" s="12" t="s">
         <v>188</v>
@@ -4797,7 +4797,7 @@
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" ht="17">
-      <c r="A142" s="65"/>
+      <c r="A142" s="69"/>
       <c r="B142" s="13"/>
       <c r="C142" s="14" t="s">
         <v>191</v>
@@ -4808,7 +4808,7 @@
       <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" ht="17">
-      <c r="A143" s="65"/>
+      <c r="A143" s="69"/>
       <c r="B143" s="13" t="s">
         <v>192</v>
       </c>
@@ -4819,7 +4819,7 @@
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" ht="17">
-      <c r="A144" s="65"/>
+      <c r="A144" s="69"/>
       <c r="B144" s="13"/>
       <c r="C144" s="14" t="s">
         <v>193</v>
@@ -4830,7 +4830,7 @@
       <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7" ht="17">
-      <c r="A145" s="65"/>
+      <c r="A145" s="69"/>
       <c r="B145" s="13" t="s">
         <v>194</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7" ht="17">
-      <c r="A146" s="65"/>
+      <c r="A146" s="69"/>
       <c r="B146" s="13" t="s">
         <v>195</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7" ht="17">
-      <c r="A147" s="65"/>
+      <c r="A147" s="69"/>
       <c r="B147" s="13"/>
       <c r="C147" s="14" t="s">
         <v>180</v>
@@ -4863,7 +4863,7 @@
       <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7" ht="17">
-      <c r="A148" s="65"/>
+      <c r="A148" s="69"/>
       <c r="B148" s="13"/>
       <c r="C148" s="14" t="s">
         <v>196</v>
@@ -4874,7 +4874,7 @@
       <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" ht="17">
-      <c r="A149" s="66"/>
+      <c r="A149" s="65"/>
       <c r="B149" s="11"/>
       <c r="C149" s="12" t="s">
         <v>183</v>
@@ -4898,7 +4898,7 @@
       <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" ht="17">
-      <c r="A151" s="65"/>
+      <c r="A151" s="69"/>
       <c r="B151" s="13"/>
       <c r="C151" s="14" t="s">
         <v>198</v>
@@ -4909,26 +4909,26 @@
       <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7" ht="17">
-      <c r="A152" s="65"/>
+      <c r="A152" s="69"/>
       <c r="B152" s="13" t="s">
         <v>187</v>
       </c>
       <c r="C152" s="14"/>
       <c r="D152" s="9"/>
-      <c r="E152" s="67" t="s">
+      <c r="E152" s="74" t="s">
         <v>199</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7" ht="17">
-      <c r="A153" s="66"/>
+      <c r="A153" s="65"/>
       <c r="B153" s="11"/>
       <c r="C153" s="12" t="s">
         <v>200</v>
       </c>
       <c r="D153" s="9"/>
-      <c r="E153" s="68"/>
+      <c r="E153" s="75"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
     </row>
@@ -4941,34 +4941,34 @@
       </c>
       <c r="C154" s="14"/>
       <c r="D154" s="9"/>
-      <c r="E154" s="68"/>
+      <c r="E154" s="75"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7" ht="17">
-      <c r="A155" s="65"/>
+      <c r="A155" s="69"/>
       <c r="B155" s="13"/>
       <c r="C155" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D155" s="9"/>
-      <c r="E155" s="68"/>
+      <c r="E155" s="75"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7" ht="17">
-      <c r="A156" s="65"/>
+      <c r="A156" s="69"/>
       <c r="B156" s="13" t="s">
         <v>192</v>
       </c>
       <c r="C156" s="14"/>
       <c r="D156" s="9"/>
-      <c r="E156" s="68"/>
+      <c r="E156" s="75"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:7" ht="17">
-      <c r="A157" s="65"/>
+      <c r="A157" s="69"/>
       <c r="B157" s="13"/>
       <c r="C157" s="14" t="s">
         <v>193</v>
@@ -4979,7 +4979,7 @@
       <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7" ht="17">
-      <c r="A158" s="65"/>
+      <c r="A158" s="69"/>
       <c r="B158" s="13" t="s">
         <v>194</v>
       </c>
@@ -4990,7 +4990,7 @@
       <c r="G158" s="6"/>
     </row>
     <row r="159" spans="1:7" ht="17">
-      <c r="A159" s="65"/>
+      <c r="A159" s="69"/>
       <c r="B159" s="13" t="s">
         <v>195</v>
       </c>
@@ -5001,7 +5001,7 @@
       <c r="G159" s="6"/>
     </row>
     <row r="160" spans="1:7" ht="17">
-      <c r="A160" s="65"/>
+      <c r="A160" s="69"/>
       <c r="B160" s="13"/>
       <c r="C160" s="14" t="s">
         <v>180</v>
@@ -5012,7 +5012,7 @@
       <c r="G160" s="6"/>
     </row>
     <row r="161" spans="1:7" ht="17">
-      <c r="A161" s="65"/>
+      <c r="A161" s="69"/>
       <c r="B161" s="13"/>
       <c r="C161" s="14" t="s">
         <v>196</v>
@@ -5023,7 +5023,7 @@
       <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:7" ht="17">
-      <c r="A162" s="66"/>
+      <c r="A162" s="65"/>
       <c r="B162" s="11"/>
       <c r="C162" s="12" t="s">
         <v>183</v>
@@ -5047,7 +5047,7 @@
       <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7" ht="17">
-      <c r="A164" s="65"/>
+      <c r="A164" s="69"/>
       <c r="B164" s="13"/>
       <c r="C164" s="14" t="s">
         <v>198</v>
@@ -5058,7 +5058,7 @@
       <c r="G164" s="6"/>
     </row>
     <row r="165" spans="1:7" ht="17">
-      <c r="A165" s="65"/>
+      <c r="A165" s="69"/>
       <c r="B165" s="13" t="s">
         <v>187</v>
       </c>
@@ -5069,7 +5069,7 @@
       <c r="G165" s="6"/>
     </row>
     <row r="166" spans="1:7" ht="17">
-      <c r="A166" s="66"/>
+      <c r="A166" s="65"/>
       <c r="B166" s="11"/>
       <c r="C166" s="12" t="s">
         <v>203</v>
@@ -5093,7 +5093,7 @@
       <c r="G167" s="6"/>
     </row>
     <row r="168" spans="1:7" ht="17">
-      <c r="A168" s="65"/>
+      <c r="A168" s="69"/>
       <c r="B168" s="13" t="s">
         <v>206</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7" ht="17">
-      <c r="A169" s="66"/>
+      <c r="A169" s="65"/>
       <c r="B169" s="11"/>
       <c r="C169" s="12" t="s">
         <v>207</v>
@@ -5128,7 +5128,7 @@
       <c r="G170" s="6"/>
     </row>
     <row r="171" spans="1:7" ht="34">
-      <c r="A171" s="65"/>
+      <c r="A171" s="69"/>
       <c r="B171" s="13"/>
       <c r="C171" s="14" t="s">
         <v>208</v>
@@ -5139,7 +5139,7 @@
       <c r="G171" s="6"/>
     </row>
     <row r="172" spans="1:7" ht="17">
-      <c r="A172" s="65"/>
+      <c r="A172" s="69"/>
       <c r="B172" s="13" t="s">
         <v>187</v>
       </c>
@@ -5150,7 +5150,7 @@
       <c r="G172" s="6"/>
     </row>
     <row r="173" spans="1:7" ht="17">
-      <c r="A173" s="66"/>
+      <c r="A173" s="65"/>
       <c r="B173" s="11"/>
       <c r="C173" s="12" t="s">
         <v>209</v>
@@ -5174,7 +5174,7 @@
       <c r="G174" s="6"/>
     </row>
     <row r="175" spans="1:7" ht="34">
-      <c r="A175" s="66"/>
+      <c r="A175" s="65"/>
       <c r="B175" s="11"/>
       <c r="C175" s="12" t="s">
         <v>211</v>
@@ -5198,7 +5198,7 @@
       <c r="G176" s="6"/>
     </row>
     <row r="177" spans="1:7" ht="17">
-      <c r="A177" s="65"/>
+      <c r="A177" s="69"/>
       <c r="B177" s="13"/>
       <c r="C177" s="14" t="s">
         <v>213</v>
@@ -5209,7 +5209,7 @@
       <c r="G177" s="6"/>
     </row>
     <row r="178" spans="1:7" ht="17">
-      <c r="A178" s="65"/>
+      <c r="A178" s="69"/>
       <c r="B178" s="13" t="s">
         <v>214</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="G178" s="6"/>
     </row>
     <row r="179" spans="1:7" ht="17">
-      <c r="A179" s="66"/>
+      <c r="A179" s="65"/>
       <c r="B179" s="11"/>
       <c r="C179" s="12" t="s">
         <v>215</v>
@@ -5244,7 +5244,7 @@
       <c r="G180" s="6"/>
     </row>
     <row r="181" spans="1:7" ht="17">
-      <c r="A181" s="66"/>
+      <c r="A181" s="65"/>
       <c r="B181" s="11"/>
       <c r="C181" s="12" t="s">
         <v>217</v>
@@ -5268,7 +5268,7 @@
       <c r="G182" s="6"/>
     </row>
     <row r="183" spans="1:7" ht="17">
-      <c r="A183" s="65"/>
+      <c r="A183" s="69"/>
       <c r="B183" s="13"/>
       <c r="C183" s="14" t="s">
         <v>219</v>
@@ -5279,7 +5279,7 @@
       <c r="G183" s="6"/>
     </row>
     <row r="184" spans="1:7" ht="85">
-      <c r="A184" s="65"/>
+      <c r="A184" s="69"/>
       <c r="B184" s="13" t="s">
         <v>220</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="G184" s="6"/>
     </row>
     <row r="185" spans="1:7" ht="17">
-      <c r="A185" s="66"/>
+      <c r="A185" s="65"/>
       <c r="B185" s="11"/>
       <c r="C185" s="12" t="s">
         <v>223</v>
@@ -5320,7 +5320,7 @@
       <c r="G186" s="6"/>
     </row>
     <row r="187" spans="1:7" ht="34">
-      <c r="A187" s="65"/>
+      <c r="A187" s="69"/>
       <c r="B187" s="13"/>
       <c r="C187" s="20" t="s">
         <v>226</v>
@@ -5337,7 +5337,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="17">
-      <c r="A188" s="65"/>
+      <c r="A188" s="69"/>
       <c r="B188" s="13" t="s">
         <v>230</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="G188" s="6"/>
     </row>
     <row r="189" spans="1:7" ht="17">
-      <c r="A189" s="65"/>
+      <c r="A189" s="69"/>
       <c r="B189" s="13"/>
       <c r="C189" s="14" t="s">
         <v>231</v>
@@ -5359,7 +5359,7 @@
       <c r="G189" s="6"/>
     </row>
     <row r="190" spans="1:7" ht="17">
-      <c r="A190" s="65"/>
+      <c r="A190" s="69"/>
       <c r="B190" s="13" t="s">
         <v>232</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="G190" s="6"/>
     </row>
     <row r="191" spans="1:7" ht="17">
-      <c r="A191" s="66"/>
+      <c r="A191" s="65"/>
       <c r="B191" s="11"/>
       <c r="C191" s="12" t="s">
         <v>233</v>
@@ -5396,7 +5396,7 @@
       <c r="G192" s="6"/>
     </row>
     <row r="193" spans="1:7" ht="34">
-      <c r="A193" s="65"/>
+      <c r="A193" s="69"/>
       <c r="B193" s="13"/>
       <c r="C193" s="14" t="s">
         <v>234</v>
@@ -5409,7 +5409,7 @@
       <c r="G193" s="6"/>
     </row>
     <row r="194" spans="1:7" ht="17">
-      <c r="A194" s="65"/>
+      <c r="A194" s="69"/>
       <c r="B194" s="13" t="s">
         <v>235</v>
       </c>
@@ -5420,7 +5420,7 @@
       <c r="G194" s="6"/>
     </row>
     <row r="195" spans="1:7" ht="34">
-      <c r="A195" s="65"/>
+      <c r="A195" s="69"/>
       <c r="B195" s="13"/>
       <c r="C195" s="14" t="s">
         <v>236</v>
@@ -5433,7 +5433,7 @@
       <c r="G195" s="6"/>
     </row>
     <row r="196" spans="1:7" ht="17">
-      <c r="A196" s="65"/>
+      <c r="A196" s="69"/>
       <c r="B196" s="13" t="s">
         <v>238</v>
       </c>
@@ -5444,7 +5444,7 @@
       <c r="G196" s="6"/>
     </row>
     <row r="197" spans="1:7" ht="17">
-      <c r="A197" s="66"/>
+      <c r="A197" s="65"/>
       <c r="B197" s="11"/>
       <c r="C197" s="12" t="s">
         <v>239</v>
@@ -5468,7 +5468,7 @@
       <c r="G198" s="6"/>
     </row>
     <row r="199" spans="1:7" ht="17">
-      <c r="A199" s="65"/>
+      <c r="A199" s="69"/>
       <c r="B199" s="13"/>
       <c r="C199" s="14" t="s">
         <v>241</v>
@@ -5479,7 +5479,7 @@
       <c r="G199" s="6"/>
     </row>
     <row r="200" spans="1:7" ht="17">
-      <c r="A200" s="65"/>
+      <c r="A200" s="69"/>
       <c r="B200" s="13" t="s">
         <v>242</v>
       </c>
@@ -5490,7 +5490,7 @@
       <c r="G200" s="6"/>
     </row>
     <row r="201" spans="1:7" ht="17">
-      <c r="A201" s="65"/>
+      <c r="A201" s="69"/>
       <c r="B201" s="13"/>
       <c r="C201" s="14" t="s">
         <v>243</v>
@@ -5501,7 +5501,7 @@
       <c r="G201" s="6"/>
     </row>
     <row r="202" spans="1:7" ht="17">
-      <c r="A202" s="65"/>
+      <c r="A202" s="69"/>
       <c r="B202" s="13"/>
       <c r="C202" s="14" t="s">
         <v>244</v>
@@ -5512,7 +5512,7 @@
       <c r="G202" s="6"/>
     </row>
     <row r="203" spans="1:7" ht="17">
-      <c r="A203" s="65"/>
+      <c r="A203" s="69"/>
       <c r="B203" s="13"/>
       <c r="C203" s="14" t="s">
         <v>245</v>
@@ -5523,7 +5523,7 @@
       <c r="G203" s="6"/>
     </row>
     <row r="204" spans="1:7" ht="17">
-      <c r="A204" s="65"/>
+      <c r="A204" s="69"/>
       <c r="B204" s="13" t="s">
         <v>246</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="G204" s="6"/>
     </row>
     <row r="205" spans="1:7" ht="17">
-      <c r="A205" s="66"/>
+      <c r="A205" s="65"/>
       <c r="B205" s="11"/>
       <c r="C205" s="12" t="s">
         <v>247</v>
@@ -5558,7 +5558,7 @@
       <c r="G206" s="6"/>
     </row>
     <row r="207" spans="1:7" ht="17">
-      <c r="A207" s="65"/>
+      <c r="A207" s="69"/>
       <c r="B207" s="13"/>
       <c r="C207" s="14" t="s">
         <v>249</v>
@@ -5569,7 +5569,7 @@
       <c r="G207" s="6"/>
     </row>
     <row r="208" spans="1:7" ht="17">
-      <c r="A208" s="65"/>
+      <c r="A208" s="69"/>
       <c r="B208" s="13" t="s">
         <v>250</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="G208" s="6"/>
     </row>
     <row r="209" spans="1:7" ht="17">
-      <c r="A209" s="65"/>
+      <c r="A209" s="69"/>
       <c r="B209" s="13"/>
       <c r="C209" s="14" t="s">
         <v>251</v>
@@ -5591,7 +5591,7 @@
       <c r="G209" s="6"/>
     </row>
     <row r="210" spans="1:7" ht="17">
-      <c r="A210" s="65"/>
+      <c r="A210" s="69"/>
       <c r="B210" s="13" t="s">
         <v>252</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="G210" s="6"/>
     </row>
     <row r="211" spans="1:7" ht="34">
-      <c r="A211" s="66"/>
+      <c r="A211" s="65"/>
       <c r="B211" s="11"/>
       <c r="C211" s="12" t="s">
         <v>253</v>
@@ -5626,7 +5626,7 @@
       <c r="G212" s="6"/>
     </row>
     <row r="213" spans="1:7" ht="17">
-      <c r="A213" s="65"/>
+      <c r="A213" s="69"/>
       <c r="B213" s="13"/>
       <c r="C213" s="14" t="s">
         <v>256</v>
@@ -5637,7 +5637,7 @@
       <c r="G213" s="6"/>
     </row>
     <row r="214" spans="1:7" ht="17">
-      <c r="A214" s="65"/>
+      <c r="A214" s="69"/>
       <c r="B214" s="13" t="s">
         <v>250</v>
       </c>
@@ -5648,7 +5648,7 @@
       <c r="G214" s="6"/>
     </row>
     <row r="215" spans="1:7" ht="34">
-      <c r="A215" s="66"/>
+      <c r="A215" s="65"/>
       <c r="B215" s="11"/>
       <c r="C215" s="12" t="s">
         <v>257</v>
@@ -5672,7 +5672,7 @@
       <c r="G216" s="6"/>
     </row>
     <row r="217" spans="1:7" ht="17">
-      <c r="A217" s="65"/>
+      <c r="A217" s="69"/>
       <c r="B217" s="13"/>
       <c r="C217" s="14" t="s">
         <v>259</v>
@@ -5683,7 +5683,7 @@
       <c r="G217" s="6"/>
     </row>
     <row r="218" spans="1:7" ht="34">
-      <c r="A218" s="65"/>
+      <c r="A218" s="69"/>
       <c r="B218" s="29" t="s">
         <v>260</v>
       </c>
@@ -5696,7 +5696,7 @@
       <c r="G218" s="6"/>
     </row>
     <row r="219" spans="1:7" ht="68">
-      <c r="A219" s="66"/>
+      <c r="A219" s="65"/>
       <c r="B219" s="31"/>
       <c r="C219" s="16" t="s">
         <v>262</v>
@@ -5722,7 +5722,7 @@
       <c r="G220" s="6"/>
     </row>
     <row r="221" spans="1:7" ht="17">
-      <c r="A221" s="66"/>
+      <c r="A221" s="65"/>
       <c r="B221" s="11"/>
       <c r="C221" s="12" t="s">
         <v>265</v>
@@ -5746,7 +5746,7 @@
       <c r="G222" s="6"/>
     </row>
     <row r="223" spans="1:7" ht="34">
-      <c r="A223" s="66"/>
+      <c r="A223" s="65"/>
       <c r="B223" s="13"/>
       <c r="C223" s="14" t="s">
         <v>267</v>
@@ -5761,7 +5761,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="17">
-      <c r="A224" s="69" t="s">
+      <c r="A224" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B224" s="21" t="s">
@@ -5774,7 +5774,7 @@
       <c r="G224" s="6"/>
     </row>
     <row r="225" spans="1:8" ht="34">
-      <c r="A225" s="70"/>
+      <c r="A225" s="67"/>
       <c r="B225" s="22"/>
       <c r="C225" s="14" t="s">
         <v>270</v>
@@ -5787,7 +5787,7 @@
       <c r="G225" s="6"/>
     </row>
     <row r="226" spans="1:8" ht="17">
-      <c r="A226" s="70"/>
+      <c r="A226" s="67"/>
       <c r="B226" s="22" t="s">
         <v>271</v>
       </c>
@@ -5798,7 +5798,7 @@
       <c r="G226" s="6"/>
     </row>
     <row r="227" spans="1:8" ht="17">
-      <c r="A227" s="70"/>
+      <c r="A227" s="67"/>
       <c r="B227" s="22"/>
       <c r="C227" s="14" t="s">
         <v>272</v>
@@ -5809,7 +5809,7 @@
       <c r="G227" s="6"/>
     </row>
     <row r="228" spans="1:8" ht="17">
-      <c r="A228" s="70"/>
+      <c r="A228" s="67"/>
       <c r="B228" s="22" t="s">
         <v>273</v>
       </c>
@@ -5820,7 +5820,7 @@
       <c r="G228" s="6"/>
     </row>
     <row r="229" spans="1:8" ht="17">
-      <c r="A229" s="70"/>
+      <c r="A229" s="67"/>
       <c r="B229" s="22"/>
       <c r="C229" s="14" t="s">
         <v>274</v>
@@ -5831,7 +5831,7 @@
       <c r="G229" s="6"/>
     </row>
     <row r="230" spans="1:8" ht="17">
-      <c r="A230" s="72" t="s">
+      <c r="A230" s="68" t="s">
         <v>275</v>
       </c>
       <c r="B230" s="7" t="s">
@@ -5844,7 +5844,7 @@
       <c r="G230" s="6"/>
     </row>
     <row r="231" spans="1:8" ht="34">
-      <c r="A231" s="65"/>
+      <c r="A231" s="69"/>
       <c r="B231" s="13"/>
       <c r="C231" s="14" t="s">
         <v>270</v>
@@ -5855,7 +5855,7 @@
       <c r="G231" s="6"/>
     </row>
     <row r="232" spans="1:8" ht="17">
-      <c r="A232" s="65"/>
+      <c r="A232" s="69"/>
       <c r="B232" s="13" t="s">
         <v>276</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="G232" s="6"/>
     </row>
     <row r="233" spans="1:8" ht="17">
-      <c r="A233" s="66"/>
+      <c r="A233" s="65"/>
       <c r="B233" s="11"/>
       <c r="C233" s="12" t="s">
         <v>277</v>
@@ -5877,7 +5877,7 @@
       <c r="G233" s="6"/>
     </row>
     <row r="234" spans="1:8" ht="17">
-      <c r="A234" s="73" t="s">
+      <c r="A234" s="70" t="s">
         <v>32</v>
       </c>
       <c r="B234" s="13" t="s">
@@ -5890,7 +5890,7 @@
       <c r="G234" s="6"/>
     </row>
     <row r="235" spans="1:8" ht="34">
-      <c r="A235" s="65"/>
+      <c r="A235" s="69"/>
       <c r="B235" s="13"/>
       <c r="C235" s="14" t="s">
         <v>270</v>
@@ -5901,7 +5901,7 @@
       <c r="G235" s="6"/>
     </row>
     <row r="236" spans="1:8" ht="17">
-      <c r="A236" s="65"/>
+      <c r="A236" s="69"/>
       <c r="B236" s="13" t="s">
         <v>278</v>
       </c>
@@ -5912,7 +5912,7 @@
       <c r="G236" s="6"/>
     </row>
     <row r="237" spans="1:8" ht="34">
-      <c r="A237" s="66"/>
+      <c r="A237" s="65"/>
       <c r="B237" s="11"/>
       <c r="C237" s="12" t="s">
         <v>279</v>
@@ -5927,7 +5927,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" ht="16">
-      <c r="A238" s="73" t="s">
+      <c r="A238" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B238" s="33" t="s">
@@ -5941,7 +5941,7 @@
       <c r="H238" s="37"/>
     </row>
     <row r="239" spans="1:8" ht="16">
-      <c r="A239" s="65"/>
+      <c r="A239" s="69"/>
       <c r="B239" s="39"/>
       <c r="C239" s="40" t="s">
         <v>282</v>
@@ -5953,7 +5953,7 @@
       <c r="H239" s="37"/>
     </row>
     <row r="240" spans="1:8" ht="16">
-      <c r="A240" s="65"/>
+      <c r="A240" s="69"/>
       <c r="B240" s="35" t="s">
         <v>283</v>
       </c>
@@ -5965,7 +5965,7 @@
       <c r="H240" s="37"/>
     </row>
     <row r="241" spans="1:8" ht="16">
-      <c r="A241" s="66"/>
+      <c r="A241" s="65"/>
       <c r="B241" s="41"/>
       <c r="C241" s="42" t="s">
         <v>284</v>
@@ -5977,7 +5977,7 @@
       <c r="H241" s="37"/>
     </row>
     <row r="242" spans="1:8" ht="17">
-      <c r="A242" s="69" t="s">
+      <c r="A242" s="66" t="s">
         <v>285</v>
       </c>
       <c r="B242" s="22" t="s">
@@ -5990,7 +5990,7 @@
       <c r="G242" s="6"/>
     </row>
     <row r="243" spans="1:8" ht="34">
-      <c r="A243" s="70"/>
+      <c r="A243" s="67"/>
       <c r="B243" s="22"/>
       <c r="C243" s="14" t="s">
         <v>270</v>
@@ -6001,7 +6001,7 @@
       <c r="G243" s="6"/>
     </row>
     <row r="244" spans="1:8" ht="17">
-      <c r="A244" s="70"/>
+      <c r="A244" s="67"/>
       <c r="B244" s="22" t="s">
         <v>286</v>
       </c>
@@ -6036,7 +6036,7 @@
       <c r="G246" s="6"/>
     </row>
     <row r="247" spans="1:8" ht="17">
-      <c r="A247" s="66"/>
+      <c r="A247" s="65"/>
       <c r="B247" s="11"/>
       <c r="C247" s="12" t="s">
         <v>289</v>
@@ -6060,7 +6060,7 @@
       <c r="G248" s="6"/>
     </row>
     <row r="249" spans="1:8" ht="17">
-      <c r="A249" s="66"/>
+      <c r="A249" s="65"/>
       <c r="B249" s="11"/>
       <c r="C249" s="12" t="s">
         <v>291</v>
@@ -6084,7 +6084,7 @@
       <c r="G250" s="6"/>
     </row>
     <row r="251" spans="1:8" ht="17">
-      <c r="A251" s="66"/>
+      <c r="A251" s="65"/>
       <c r="B251" s="11"/>
       <c r="C251" s="12" t="s">
         <v>293</v>
@@ -6108,7 +6108,7 @@
       <c r="G252" s="6"/>
     </row>
     <row r="253" spans="1:8" ht="17">
-      <c r="A253" s="65"/>
+      <c r="A253" s="69"/>
       <c r="B253" s="13"/>
       <c r="C253" s="14" t="s">
         <v>295</v>
@@ -6119,7 +6119,7 @@
       <c r="G253" s="6"/>
     </row>
     <row r="254" spans="1:8" ht="17">
-      <c r="A254" s="72" t="s">
+      <c r="A254" s="68" t="s">
         <v>42</v>
       </c>
       <c r="B254" s="7" t="s">
@@ -6132,7 +6132,7 @@
       <c r="G254" s="6"/>
     </row>
     <row r="255" spans="1:8" ht="34">
-      <c r="A255" s="65"/>
+      <c r="A255" s="69"/>
       <c r="B255" s="13"/>
       <c r="C255" s="14" t="s">
         <v>297</v>
@@ -6143,7 +6143,7 @@
       <c r="G255" s="6"/>
     </row>
     <row r="256" spans="1:8" ht="34">
-      <c r="A256" s="65"/>
+      <c r="A256" s="69"/>
       <c r="B256" s="13"/>
       <c r="C256" s="14" t="s">
         <v>298</v>
@@ -6154,7 +6154,7 @@
       <c r="G256" s="6"/>
     </row>
     <row r="257" spans="1:7" ht="17">
-      <c r="A257" s="65"/>
+      <c r="A257" s="69"/>
       <c r="B257" s="13" t="s">
         <v>299</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="G257" s="6"/>
     </row>
     <row r="258" spans="1:7" ht="34">
-      <c r="A258" s="66"/>
+      <c r="A258" s="65"/>
       <c r="B258" s="13"/>
       <c r="C258" s="14" t="s">
         <v>300</v>
@@ -6189,7 +6189,7 @@
       <c r="G259" s="6"/>
     </row>
     <row r="260" spans="1:7" ht="34">
-      <c r="A260" s="65"/>
+      <c r="A260" s="69"/>
       <c r="B260" s="13"/>
       <c r="C260" s="14" t="s">
         <v>303</v>
@@ -6202,7 +6202,7 @@
       <c r="G260" s="6"/>
     </row>
     <row r="261" spans="1:7" ht="17">
-      <c r="A261" s="65"/>
+      <c r="A261" s="69"/>
       <c r="B261" s="13" t="s">
         <v>305</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="G261" s="6"/>
     </row>
     <row r="262" spans="1:7" ht="34">
-      <c r="A262" s="66"/>
+      <c r="A262" s="65"/>
       <c r="B262" s="11"/>
       <c r="C262" s="12" t="s">
         <v>306</v>
@@ -6237,7 +6237,7 @@
       <c r="G263" s="6"/>
     </row>
     <row r="264" spans="1:7" ht="17">
-      <c r="A264" s="65"/>
+      <c r="A264" s="69"/>
       <c r="B264" s="13"/>
       <c r="C264" s="14" t="s">
         <v>308</v>
@@ -6248,7 +6248,7 @@
       <c r="G264" s="6"/>
     </row>
     <row r="265" spans="1:7" ht="17">
-      <c r="A265" s="65"/>
+      <c r="A265" s="69"/>
       <c r="B265" s="13" t="s">
         <v>309</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="G265" s="6"/>
     </row>
     <row r="266" spans="1:7" ht="17">
-      <c r="A266" s="66"/>
+      <c r="A266" s="65"/>
       <c r="B266" s="11"/>
       <c r="C266" s="12" t="s">
         <v>310</v>
@@ -6283,7 +6283,7 @@
       <c r="G267" s="6"/>
     </row>
     <row r="268" spans="1:7" ht="17">
-      <c r="A268" s="65"/>
+      <c r="A268" s="69"/>
       <c r="B268" s="13"/>
       <c r="C268" s="14" t="s">
         <v>313</v>
@@ -6294,7 +6294,7 @@
       <c r="G268" s="6"/>
     </row>
     <row r="269" spans="1:7" ht="17">
-      <c r="A269" s="65"/>
+      <c r="A269" s="69"/>
       <c r="B269" s="13" t="s">
         <v>314</v>
       </c>
@@ -6305,7 +6305,7 @@
       <c r="G269" s="6"/>
     </row>
     <row r="270" spans="1:7" ht="17">
-      <c r="A270" s="66"/>
+      <c r="A270" s="65"/>
       <c r="B270" s="13"/>
       <c r="C270" s="14" t="s">
         <v>315</v>
@@ -6329,7 +6329,7 @@
       <c r="G271" s="6"/>
     </row>
     <row r="272" spans="1:7" ht="17">
-      <c r="A272" s="65"/>
+      <c r="A272" s="69"/>
       <c r="B272" s="13"/>
       <c r="C272" s="14" t="s">
         <v>318</v>
@@ -6340,7 +6340,7 @@
       <c r="G272" s="6"/>
     </row>
     <row r="273" spans="1:7" ht="17">
-      <c r="A273" s="65"/>
+      <c r="A273" s="69"/>
       <c r="B273" s="13" t="s">
         <v>319</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="G273" s="6"/>
     </row>
     <row r="274" spans="1:7" ht="34">
-      <c r="A274" s="66"/>
+      <c r="A274" s="65"/>
       <c r="B274" s="11"/>
       <c r="C274" s="12" t="s">
         <v>320</v>
@@ -6375,7 +6375,7 @@
       <c r="G275" s="6"/>
     </row>
     <row r="276" spans="1:7" ht="17">
-      <c r="A276" s="66"/>
+      <c r="A276" s="65"/>
       <c r="B276" s="11"/>
       <c r="C276" s="12" t="s">
         <v>322</v>
@@ -6399,7 +6399,7 @@
       <c r="G277" s="6"/>
     </row>
     <row r="278" spans="1:7" ht="17">
-      <c r="A278" s="66"/>
+      <c r="A278" s="65"/>
       <c r="B278" s="11"/>
       <c r="C278" s="12" t="s">
         <v>325</v>
@@ -6423,7 +6423,7 @@
       <c r="G279" s="6"/>
     </row>
     <row r="280" spans="1:7" ht="34">
-      <c r="A280" s="65"/>
+      <c r="A280" s="69"/>
       <c r="B280" s="13"/>
       <c r="C280" s="14" t="s">
         <v>327</v>
@@ -6434,7 +6434,7 @@
       <c r="G280" s="6"/>
     </row>
     <row r="281" spans="1:7" ht="17">
-      <c r="A281" s="72" t="s">
+      <c r="A281" s="68" t="s">
         <v>44</v>
       </c>
       <c r="B281" s="7" t="s">
@@ -6447,7 +6447,7 @@
       <c r="G281" s="6"/>
     </row>
     <row r="282" spans="1:7" ht="17">
-      <c r="A282" s="65"/>
+      <c r="A282" s="69"/>
       <c r="B282" s="13"/>
       <c r="C282" s="14" t="s">
         <v>329</v>
@@ -6458,7 +6458,7 @@
       <c r="G282" s="6"/>
     </row>
     <row r="283" spans="1:7" ht="17">
-      <c r="A283" s="65"/>
+      <c r="A283" s="69"/>
       <c r="B283" s="13" t="s">
         <v>330</v>
       </c>
@@ -6469,7 +6469,7 @@
       <c r="G283" s="6"/>
     </row>
     <row r="284" spans="1:7" ht="34">
-      <c r="A284" s="66"/>
+      <c r="A284" s="65"/>
       <c r="B284" s="11"/>
       <c r="C284" s="12" t="s">
         <v>331</v>
@@ -6493,7 +6493,7 @@
       <c r="G285" s="6"/>
     </row>
     <row r="286" spans="1:7" ht="34">
-      <c r="A286" s="65"/>
+      <c r="A286" s="69"/>
       <c r="B286" s="13"/>
       <c r="C286" s="14" t="s">
         <v>333</v>
@@ -6504,7 +6504,7 @@
       <c r="G286" s="6"/>
     </row>
     <row r="287" spans="1:7" ht="17">
-      <c r="A287" s="65"/>
+      <c r="A287" s="69"/>
       <c r="B287" s="13" t="s">
         <v>334</v>
       </c>
@@ -6515,7 +6515,7 @@
       <c r="G287" s="6"/>
     </row>
     <row r="288" spans="1:7" ht="17">
-      <c r="A288" s="65"/>
+      <c r="A288" s="69"/>
       <c r="B288" s="13"/>
       <c r="C288" s="14" t="s">
         <v>335</v>
@@ -6526,7 +6526,7 @@
       <c r="G288" s="6"/>
     </row>
     <row r="289" spans="1:7" ht="17">
-      <c r="A289" s="65"/>
+      <c r="A289" s="69"/>
       <c r="B289" s="13" t="s">
         <v>336</v>
       </c>
@@ -6537,7 +6537,7 @@
       <c r="G289" s="6"/>
     </row>
     <row r="290" spans="1:7" ht="17">
-      <c r="A290" s="65"/>
+      <c r="A290" s="69"/>
       <c r="B290" s="13"/>
       <c r="C290" s="14" t="s">
         <v>337</v>
@@ -6548,7 +6548,7 @@
       <c r="G290" s="6"/>
     </row>
     <row r="291" spans="1:7" ht="17">
-      <c r="A291" s="65"/>
+      <c r="A291" s="69"/>
       <c r="B291" s="13" t="s">
         <v>338</v>
       </c>
@@ -6559,7 +6559,7 @@
       <c r="G291" s="6"/>
     </row>
     <row r="292" spans="1:7" ht="17">
-      <c r="A292" s="66"/>
+      <c r="A292" s="65"/>
       <c r="B292" s="11"/>
       <c r="C292" s="12" t="s">
         <v>339</v>
@@ -6583,7 +6583,7 @@
       <c r="G293" s="6"/>
     </row>
     <row r="294" spans="1:7" ht="34">
-      <c r="A294" s="65"/>
+      <c r="A294" s="69"/>
       <c r="B294" s="13"/>
       <c r="C294" s="14" t="s">
         <v>333</v>
@@ -6594,7 +6594,7 @@
       <c r="G294" s="6"/>
     </row>
     <row r="295" spans="1:7" ht="17">
-      <c r="A295" s="65"/>
+      <c r="A295" s="69"/>
       <c r="B295" s="13" t="s">
         <v>334</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="G295" s="6"/>
     </row>
     <row r="296" spans="1:7" ht="17">
-      <c r="A296" s="65"/>
+      <c r="A296" s="69"/>
       <c r="B296" s="13"/>
       <c r="C296" s="14" t="s">
         <v>335</v>
@@ -6616,7 +6616,7 @@
       <c r="G296" s="6"/>
     </row>
     <row r="297" spans="1:7" ht="17">
-      <c r="A297" s="65"/>
+      <c r="A297" s="69"/>
       <c r="B297" s="13" t="s">
         <v>341</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="G297" s="6"/>
     </row>
     <row r="298" spans="1:7" ht="17">
-      <c r="A298" s="66"/>
+      <c r="A298" s="65"/>
       <c r="B298" s="11"/>
       <c r="C298" s="12" t="s">
         <v>342</v>
@@ -6651,7 +6651,7 @@
       <c r="G299" s="6"/>
     </row>
     <row r="300" spans="1:7" ht="17">
-      <c r="A300" s="65"/>
+      <c r="A300" s="69"/>
       <c r="B300" s="13"/>
       <c r="C300" s="14" t="s">
         <v>344</v>
@@ -6662,7 +6662,7 @@
       <c r="G300" s="6"/>
     </row>
     <row r="301" spans="1:7" ht="85">
-      <c r="A301" s="66"/>
+      <c r="A301" s="65"/>
       <c r="B301" s="11" t="s">
         <v>345</v>
       </c>
@@ -10181,49 +10181,19 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A224:A229"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="A254:A258"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="A293:A298"/>
-    <mergeCell ref="A299:A301"/>
-    <mergeCell ref="A267:A270"/>
-    <mergeCell ref="A271:A274"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="A285:A292"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A206:A211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="A198:A205"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A179"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="A141:A149"/>
     <mergeCell ref="A150:A153"/>
@@ -10236,19 +10206,49 @@
     <mergeCell ref="A121:A136"/>
     <mergeCell ref="A137:A140"/>
     <mergeCell ref="A154:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="A206:A211"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="A198:A205"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A25:A40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A299:A301"/>
+    <mergeCell ref="A267:A270"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="A285:A292"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A254:A258"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="A293:A298"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="A234:A237"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10323,7 +10323,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="65"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="46" t="s">
         <v>355</v>
       </c>
@@ -10335,7 +10335,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="66"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="46" t="s">
         <v>3</v>
       </c>
@@ -10383,7 +10383,7 @@
       <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="65"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="46" t="s">
         <v>366</v>
       </c>
@@ -10395,7 +10395,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="65"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="46" t="s">
         <v>369</v>
       </c>
@@ -10407,7 +10407,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="65"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="46" t="s">
         <v>372</v>
       </c>
@@ -10419,7 +10419,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="65"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="46" t="s">
         <v>375</v>
       </c>
@@ -10431,7 +10431,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="65"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="46" t="s">
         <v>378</v>
       </c>
@@ -10443,7 +10443,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="66"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="46" t="s">
         <v>381</v>
       </c>
@@ -10495,7 +10495,7 @@
       <c r="D20" s="50"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="65"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="46" t="s">
         <v>391</v>
       </c>
@@ -10505,7 +10505,7 @@
       <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="65"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="46" t="s">
         <v>393</v>
       </c>
@@ -10515,7 +10515,7 @@
       <c r="D22" s="47"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="65"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="46" t="s">
         <v>395</v>
       </c>
@@ -10527,7 +10527,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="65"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="46" t="s">
         <v>398</v>
       </c>
@@ -10539,7 +10539,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="65"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="46" t="s">
         <v>401</v>
       </c>
@@ -10551,7 +10551,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="65"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="46" t="s">
         <v>404</v>
       </c>
@@ -10561,7 +10561,7 @@
       <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="46" t="s">
         <v>406</v>
       </c>
@@ -10583,7 +10583,7 @@
       <c r="D28" s="50"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="65"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="46" t="s">
         <v>409</v>
       </c>
@@ -10593,7 +10593,7 @@
       <c r="D29" s="47"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="65"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="46" t="s">
         <v>411</v>
       </c>
@@ -10603,7 +10603,7 @@
       <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="65"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="46" t="s">
         <v>413</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="65"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="46" t="s">
         <v>415</v>
       </c>
@@ -10627,7 +10627,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="66"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="46" t="s">
         <v>417</v>
       </c>
@@ -10651,7 +10651,7 @@
       <c r="D34" s="50"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="66"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="46" t="s">
         <v>420</v>
       </c>
@@ -10673,7 +10673,7 @@
       <c r="D36" s="50"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="65"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="46" t="s">
         <v>423</v>
       </c>
@@ -10685,7 +10685,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="66"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="46" t="s">
         <v>426</v>
       </c>
@@ -12756,24 +12756,24 @@
       <c r="AC39" s="54"/>
     </row>
     <row r="40" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A40" s="70"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
       <c r="S40" s="84"/>
       <c r="T40" s="54"/>
       <c r="U40" s="54"/>
@@ -12805,7 +12805,7 @@
       <c r="P41" s="85"/>
       <c r="Q41" s="85"/>
       <c r="R41" s="85"/>
-      <c r="S41" s="75"/>
+      <c r="S41" s="73"/>
       <c r="T41" s="54"/>
       <c r="U41" s="54"/>
       <c r="V41" s="54"/>
@@ -15164,6 +15164,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="A28:S28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A39:S41"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="A2:S2"/>
@@ -15173,15 +15182,6 @@
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="F15:I15"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="A28:S28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="A39:S41"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15204,18 +15204,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>562</v>
       </c>
       <c r="C2" s="79"/>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="87" t="s">
         <v>563</v>
       </c>
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
       <c r="H2" s="79"/>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="87" t="s">
         <v>564</v>
       </c>
       <c r="J2" s="78"/>
@@ -15226,18 +15226,18 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="88" t="s">
         <v>566</v>
       </c>
       <c r="C3" s="79"/>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="86" t="s">
         <v>567</v>
       </c>
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
       <c r="G3" s="78"/>
       <c r="H3" s="79"/>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="86" t="s">
         <v>568</v>
       </c>
       <c r="J3" s="78"/>
@@ -15248,18 +15248,18 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="88" t="s">
         <v>570</v>
       </c>
       <c r="C4" s="79"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="86" t="s">
         <v>571</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
       <c r="H4" s="79"/>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="86" t="s">
         <v>572</v>
       </c>
       <c r="J4" s="78"/>
@@ -15270,18 +15270,18 @@
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>573</v>
       </c>
       <c r="C5" s="79"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="86" t="s">
         <v>574</v>
       </c>
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="86" t="s">
         <v>575</v>
       </c>
       <c r="J5" s="78"/>
@@ -15292,18 +15292,18 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="88" t="s">
         <v>576</v>
       </c>
       <c r="C6" s="79"/>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="86" t="s">
         <v>577</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="79"/>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="86" t="s">
         <v>578</v>
       </c>
       <c r="J6" s="78"/>
@@ -15314,18 +15314,18 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="88" t="s">
         <v>579</v>
       </c>
       <c r="C7" s="79"/>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="86" t="s">
         <v>580</v>
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="79"/>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="86" t="s">
         <v>581</v>
       </c>
       <c r="J7" s="78"/>
@@ -15336,18 +15336,18 @@
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="88" t="s">
         <v>582</v>
       </c>
       <c r="C8" s="79"/>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="89" t="s">
         <v>583</v>
       </c>
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
       <c r="G8" s="85"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="88" t="s">
+      <c r="H8" s="73"/>
+      <c r="I8" s="86" t="s">
         <v>584</v>
       </c>
       <c r="J8" s="78"/>
@@ -15358,18 +15358,18 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="88" t="s">
         <v>585</v>
       </c>
       <c r="C9" s="79"/>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="89" t="s">
         <v>586</v>
       </c>
       <c r="E9" s="85"/>
       <c r="F9" s="85"/>
       <c r="G9" s="85"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="88" t="s">
+      <c r="H9" s="73"/>
+      <c r="I9" s="86" t="s">
         <v>587</v>
       </c>
       <c r="J9" s="78"/>
@@ -15380,18 +15380,18 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="88" t="s">
         <v>589</v>
       </c>
       <c r="C10" s="79"/>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="89" t="s">
         <v>590</v>
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="85"/>
       <c r="G10" s="85"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="88" t="s">
+      <c r="H10" s="73"/>
+      <c r="I10" s="86" t="s">
         <v>591</v>
       </c>
       <c r="J10" s="78"/>
@@ -15402,18 +15402,18 @@
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="88" t="s">
         <v>593</v>
       </c>
       <c r="C11" s="79"/>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="89" t="s">
         <v>594</v>
       </c>
       <c r="E11" s="85"/>
       <c r="F11" s="85"/>
       <c r="G11" s="85"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="88" t="s">
+      <c r="H11" s="73"/>
+      <c r="I11" s="86" t="s">
         <v>595</v>
       </c>
       <c r="J11" s="78"/>
@@ -15424,18 +15424,18 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="88" t="s">
         <v>596</v>
       </c>
       <c r="C12" s="79"/>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="89" t="s">
         <v>597</v>
       </c>
       <c r="E12" s="85"/>
       <c r="F12" s="85"/>
       <c r="G12" s="85"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="88" t="s">
+      <c r="H12" s="73"/>
+      <c r="I12" s="86" t="s">
         <v>598</v>
       </c>
       <c r="J12" s="78"/>
@@ -15446,18 +15446,18 @@
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="88" t="s">
         <v>599</v>
       </c>
       <c r="C13" s="79"/>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="89" t="s">
         <v>600</v>
       </c>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
       <c r="G13" s="85"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="88" t="s">
+      <c r="H13" s="73"/>
+      <c r="I13" s="86" t="s">
         <v>601</v>
       </c>
       <c r="J13" s="78"/>
@@ -15468,18 +15468,18 @@
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="88" t="s">
         <v>602</v>
       </c>
       <c r="C14" s="79"/>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="89" t="s">
         <v>603</v>
       </c>
       <c r="E14" s="85"/>
       <c r="F14" s="85"/>
       <c r="G14" s="85"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="88" t="s">
+      <c r="H14" s="73"/>
+      <c r="I14" s="86" t="s">
         <v>604</v>
       </c>
       <c r="J14" s="78"/>
@@ -15491,30 +15491,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:L9"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="I14:L14"/>
@@ -15530,6 +15506,30 @@
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15552,7 +15552,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="14">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="88" t="s">
         <v>605</v>
       </c>
       <c r="C2" s="78"/>
